--- a/ReportesDeDatosNuméricos/porcent_cambio.xlsx
+++ b/ReportesDeDatosNuméricos/porcent_cambio.xlsx
@@ -452,15 +452,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.33</v>
+        <v>-2.48</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bitcoin</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2.33</v>
+          <t>Tether</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -470,7 +472,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2.65</v>
+        <v>-4.62</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Dogecoin</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-10.80</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -480,15 +492,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.43</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tether</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+          <t>Bitcoin</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-2.48</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -498,15 +512,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.63</v>
+        <v>2.89</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Binance Coin</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3.63</v>
+          <t>Cardano</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-3.05</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -516,15 +532,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.84</v>
+        <v>0.65</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Solana</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>4.84</v>
+          <t>XRP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-4.45</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -534,15 +552,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>USD Coin</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03</v>
+          <t>Ethereum</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-4.62</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -552,7 +572,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.37</v>
+        <v>-4.65</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Staked Ether</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-4.65</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -562,15 +592,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.01</v>
+        <v>24.85</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TON Coin</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>27.01</v>
+          <t>USD Coin</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -580,7 +612,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.98</v>
+        <v>-4.45</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Solana</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -590,15 +632,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.76</v>
+        <v>-10.8</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dogecoin</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>7.76</v>
+          <t>Binance Coin</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -608,7 +652,17 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.63</v>
+        <v>-3.05</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TON Coin</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/ReportesDeDatosNuméricos/porcent_cambio.xlsx
+++ b/ReportesDeDatosNuméricos/porcent_cambio.xlsx
@@ -452,17 +452,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.48</v>
+        <v>-5.08</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tether</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-0.43</t>
-        </is>
+          <t>Dogecoin</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>-15.22</v>
       </c>
     </row>
     <row r="3">
@@ -472,17 +470,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4.62</v>
+        <v>-8.49</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dogecoin</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-10.80</t>
-        </is>
+          <t>Ethereum</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-8.49</v>
       </c>
     </row>
     <row r="4">
@@ -492,17 +488,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.43</v>
+        <v>0.03</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bitcoin</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-2.48</t>
-        </is>
+          <t>Staked Ether</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-8.41</v>
       </c>
     </row>
     <row r="5">
@@ -512,17 +506,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.89</v>
+        <v>-1.12</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Cardano</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-3.05</t>
-        </is>
+      <c r="D5" t="n">
+        <v>-7.72</v>
       </c>
     </row>
     <row r="6">
@@ -532,17 +524,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.65</v>
+        <v>-5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>XRP</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-4.45</t>
-        </is>
+      <c r="D6" t="n">
+        <v>-7.58</v>
       </c>
     </row>
     <row r="7">
@@ -552,17 +542,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ethereum</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-4.62</t>
-        </is>
+          <t>Solana</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-5.5</v>
       </c>
     </row>
     <row r="8">
@@ -572,17 +560,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.65</v>
+        <v>-8.41</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Staked Ether</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-4.65</t>
-        </is>
+          <t>Bitcoin</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-5.08</v>
       </c>
     </row>
     <row r="9">
@@ -592,17 +578,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24.85</v>
+        <v>16.15</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>USD Coin</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
+          <t>Binance Coin</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-1.12</v>
       </c>
     </row>
     <row r="10">
@@ -612,17 +596,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4.45</v>
+        <v>-7.58</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Solana</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
+          <t>USD Coin</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="11">
@@ -632,17 +614,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-10.8</v>
+        <v>-15.22</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Binance Coin</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
+          <t>Tether</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="12">
@@ -652,17 +632,15 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.05</v>
+        <v>-7.72</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>TON Coin</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>24.85</t>
-        </is>
+      <c r="D12" t="n">
+        <v>16.15</v>
       </c>
     </row>
   </sheetData>
